--- a/03.crawler/30.TecDoc/file/4.link/crawler_2.xlsx
+++ b/03.crawler/30.TecDoc/file/4.link/crawler_2.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Part Code</t>
   </si>
   <si>
+    <t>Make No</t>
+  </si>
+  <si>
     <t>Make</t>
   </si>
   <si>
@@ -41,9 +44,6 @@
     <t>JOIN_PCMC</t>
   </si>
   <si>
-    <t>Url</t>
-  </si>
-  <si>
     <t>Link No</t>
   </si>
   <si>
@@ -53,37 +53,154 @@
     <t>JOIN_PCMCLN</t>
   </si>
   <si>
+    <t>Check_Url</t>
+  </si>
+  <si>
     <t>MERCEDES-BENZ</t>
   </si>
   <si>
     <t>2680287;74</t>
   </si>
   <si>
+    <t>{"array": [{"articleLinkId": 2680303, "linkingTargetId": 678}, {"articleLinkId": 2680315, "linkingTargetId": 680}, {"articleLinkId": 2680331, "linkingTargetId": 682}, {"articleLinkId": 2680347, "linkingTargetId": 683}, {"articleLinkId": 2680362, "linkingTargetId": 684}, {"articleLinkId": 2680392, "linkingTargetId": 685}, {"articleLinkId": 273515772, "linkingTargetId": 27632}, {"articleLinkId": 2680408, "linkingTargetId": 692}, {"articleLinkId": 145066053, "linkingTargetId": 691}, {"articleLinkId": 2680424, "linkingTargetId": 693}, {"articleLinkId": 2680439, "linkingTargetId": 694}, {"articleLinkId": 2680440, "linkingTargetId": 695}, {"articleLinkId": 2680456, "linkingTargetId": 696}, {"articleLinkId": 948664631, "linkingTargetId": 141985}, {"articleLinkId": 2680472, "linkingTargetId": 698}, {"articleLinkId": 2680488, "linkingTargetId": 699}, {"articleLinkId": 2680504, "linkingTargetId": 700}, {"articleLinkId": 2680518, "linkingTargetId": 701}, {"articleLinkId": 2680532, "linkingTargetId": 702}, {"articleLinkId": 2680613, "linkingTargetId": 716}, {"articleLinkId": 2680546, "linkingTargetId": 703}, {"articleLinkId": 2680560, "linkingTargetId": 705}, {"articleLinkId": 2680574, "linkingTargetId": 706}, {"articleLinkId": 2680588, "linkingTargetId": 707}, {"articleLinkId": 2680600, "linkingTargetId": 708}]}</t>
+  </si>
+  <si>
+    <t>2680287;74;1</t>
+  </si>
+  <si>
     <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 014/detail?groups=298</t>
   </si>
   <si>
-    <t>{"array": [{"articleLinkId": 2680303, "linkingTargetId": 678}, {"articleLinkId": 2680315, "linkingTargetId": 680}, {"articleLinkId": 2680331, "linkingTargetId": 682}, {"articleLinkId": 2680347, "linkingTargetId": 683}, {"articleLinkId": 2680362, "linkingTargetId": 684}, {"articleLinkId": 2680392, "linkingTargetId": 685}, {"articleLinkId": 273515772, "linkingTargetId": 27632}, {"articleLinkId": 2680408, "linkingTargetId": 692}, {"articleLinkId": 145066053, "linkingTargetId": 691}, {"articleLinkId": 2680424, "linkingTargetId": 693}, {"articleLinkId": 2680439, "linkingTargetId": 694}, {"articleLinkId": 2680440, "linkingTargetId": 695}, {"articleLinkId": 2680456, "linkingTargetId": 696}, {"articleLinkId": 948664631, "linkingTargetId": 141985}, {"articleLinkId": 2680472, "linkingTargetId": 698}, {"articleLinkId": 2680488, "linkingTargetId": 699}, {"articleLinkId": 2680504, "linkingTargetId": 700}, {"articleLinkId": 2680518, "linkingTargetId": 701}, {"articleLinkId": 2680532, "linkingTargetId": 702}, {"articleLinkId": 2680613, "linkingTargetId": 716}, {"articleLinkId": 2680546, "linkingTargetId": 703}, {"articleLinkId": 2680560, "linkingTargetId": 705}, {"articleLinkId": 2680574, "linkingTargetId": 706}, {"articleLinkId": 2680588, "linkingTargetId": 707}, {"articleLinkId": 2680600, "linkingTargetId": 708}]}</t>
-  </si>
-  <si>
-    <t>2680287;74;1</t>
-  </si>
-  <si>
     <t>{"array": [{"articleLinkId": 991624944, "linkingTargetId": 116790}, {"articleLinkId": 2680626, "linkingTargetId": 831}, {"articleLinkId": 2680639, "linkingTargetId": 832}, {"articleLinkId": 2680652, "linkingTargetId": 833}, {"articleLinkId": 2680665, "linkingTargetId": 834}, {"articleLinkId": 267460794, "linkingTargetId": 125937}, {"articleLinkId": 2680678, "linkingTargetId": 838}, {"articleLinkId": 2680691, "linkingTargetId": 840}, {"articleLinkId": 2680821, "linkingTargetId": 57285}, {"articleLinkId": 2680704, "linkingTargetId": 841}, {"articleLinkId": 2680705, "linkingTargetId": 842}, {"articleLinkId": 2680807, "linkingTargetId": 852}, {"articleLinkId": 2680808, "linkingTargetId": 4832}, {"articleLinkId": 2680706, "linkingTargetId": 844}, {"articleLinkId": 2680732, "linkingTargetId": 845}, {"articleLinkId": 2680745, "linkingTargetId": 846}, {"articleLinkId": 2680770, "linkingTargetId": 847}]}</t>
   </si>
   <si>
     <t>2680287;74;2</t>
   </si>
   <si>
-    <t>936763199;74</t>
-  </si>
-  <si>
-    <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 013/detail?groups=298</t>
-  </si>
-  <si>
-    <t>{"array": [{"articleLinkId": 936763202, "linkingTargetId": 752}, {"articleLinkId": 936763219, "linkingTargetId": 58478}, {"articleLinkId": 936763220, "linkingTargetId": 122596}]}</t>
-  </si>
-  <si>
-    <t>936763199;74;1</t>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>2680312;93</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2682430, "linkingTargetId": 12260}, {"articleLinkId": 2681428, "linkingTargetId": 4802}, {"articleLinkId": 2681460, "linkingTargetId": 4803}, {"articleLinkId": 2681477, "linkingTargetId": 4804}, {"articleLinkId": 2681714, "linkingTargetId": 5642}, {"articleLinkId": 2681083, "linkingTargetId": 2133}, {"articleLinkId": 2681243, "linkingTargetId": 3766}, {"articleLinkId": 2681509, "linkingTargetId": 4805}, {"articleLinkId": 2681697, "linkingTargetId": 5641}, {"articleLinkId": 2681793, "linkingTargetId": 5644}, {"articleLinkId": 2681873, "linkingTargetId": 10020}, {"articleLinkId": 2681761, "linkingTargetId": 5643}]}</t>
+  </si>
+  <si>
+    <t>2680312;93;1</t>
+  </si>
+  <si>
+    <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 271/detail?groups=298</t>
+  </si>
+  <si>
+    <t>ALPINA</t>
+  </si>
+  <si>
+    <t>2680312;866</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2682286, "linkingTargetId": 11685}, {"articleLinkId": 2682318, "linkingTargetId": 11686}, {"articleLinkId": 2681921, "linkingTargetId": 11719}, {"articleLinkId": 2682350, "linkingTargetId": 11699}, {"articleLinkId": 2682382, "linkingTargetId": 11700}, {"articleLinkId": 2681953, "linkingTargetId": 11720}, {"articleLinkId": 2682013, "linkingTargetId": 11721}, {"articleLinkId": 2682045, "linkingTargetId": 11722}, {"articleLinkId": 2682061, "linkingTargetId": 11728}, {"articleLinkId": 2682078, "linkingTargetId": 11729}, {"articleLinkId": 2682110, "linkingTargetId": 11730}, {"articleLinkId": 2682157, "linkingTargetId": 11731}, {"articleLinkId": 2682254, "linkingTargetId": 11744}, {"articleLinkId": 2682190, "linkingTargetId": 11734}, {"articleLinkId": 2682222, "linkingTargetId": 11735}]}</t>
+  </si>
+  <si>
+    <t>2680312;866;1</t>
+  </si>
+  <si>
+    <t>2680350;74</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2680395, "linkingTargetId": 950}, {"articleLinkId": 2680427, "linkingTargetId": 951}, {"articleLinkId": 2680473, "linkingTargetId": 952}, {"articleLinkId": 2680489, "linkingTargetId": 952}, {"articleLinkId": 2680490, "linkingTargetId": 953}, {"articleLinkId": 2680519, "linkingTargetId": 954}, {"articleLinkId": 2680533, "linkingTargetId": 954}, {"articleLinkId": 2680548, "linkingTargetId": 955}, {"articleLinkId": 2680564, "linkingTargetId": 956}, {"articleLinkId": 2680603, "linkingTargetId": 957}, {"articleLinkId": 2680629, "linkingTargetId": 958}, {"articleLinkId": 2680820, "linkingTargetId": 5932}, {"articleLinkId": 2680365, "linkingTargetId": 949}, {"articleLinkId": 2680782, "linkingTargetId": 3946}, {"articleLinkId": 2680783, "linkingTargetId": 3946}, {"articleLinkId": 2680655, "linkingTargetId": 959}, {"articleLinkId": 2680731, "linkingTargetId": 960}, {"articleLinkId": 2680744, "linkingTargetId": 960}]}</t>
+  </si>
+  <si>
+    <t>2680350;74;1</t>
+  </si>
+  <si>
+    <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 359/detail?groups=298</t>
+  </si>
+  <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>2680356;25</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2680738, "linkingTargetId": 18482}, {"articleLinkId": 2680763, "linkingTargetId": 18483}, {"articleLinkId": 2680922, "linkingTargetId": 20634}, {"articleLinkId": 2680987, "linkingTargetId": 26618}, {"articleLinkId": 2680988, "linkingTargetId": 26619}, {"articleLinkId": 2680998, "linkingTargetId": 26620}, {"articleLinkId": 2680944, "linkingTargetId": 22471}]}</t>
+  </si>
+  <si>
+    <t>2680356;25;1</t>
+  </si>
+  <si>
+    <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 361/detail?groups=298</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>2680356;45</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2680555, "linkingTargetId": 14595}, {"articleLinkId": 2680450, "linkingTargetId": 11121}, {"articleLinkId": 2680541, "linkingTargetId": 14594}, {"articleLinkId": 2680514, "linkingTargetId": 11415}, {"articleLinkId": 2680434, "linkingTargetId": 10469}]}</t>
+  </si>
+  <si>
+    <t>2680356;45;1</t>
+  </si>
+  <si>
+    <t>MAZDA</t>
+  </si>
+  <si>
+    <t>2680356;72</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2680371, "linkingTargetId": 3713}, {"articleLinkId": 2680386, "linkingTargetId": 3714}, {"articleLinkId": 2680418, "linkingTargetId": 9999}, {"articleLinkId": 2680466, "linkingTargetId": 11373}, {"articleLinkId": 2680569, "linkingTargetId": 14790}]}</t>
+  </si>
+  <si>
+    <t>2680356;72;1</t>
+  </si>
+  <si>
+    <t>OPEL</t>
+  </si>
+  <si>
+    <t>2680356;84</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2680776, "linkingTargetId": 18557}, {"articleLinkId": 2680698, "linkingTargetId": 17260}, {"articleLinkId": 2680863, "linkingTargetId": 19619}, {"articleLinkId": 2681041, "linkingTargetId": 28148}, {"articleLinkId": 2680789, "linkingTargetId": 18558}, {"articleLinkId": 2680828, "linkingTargetId": 19594}, {"articleLinkId": 2680711, "linkingTargetId": 17261}, {"articleLinkId": 2680712, "linkingTargetId": 17262}, {"articleLinkId": 2680965, "linkingTargetId": 23132}, {"articleLinkId": 2680802, "linkingTargetId": 19146}, {"articleLinkId": 2680648, "linkingTargetId": 16207}, {"articleLinkId": 2680851, "linkingTargetId": 19618}, {"articleLinkId": 2681030, "linkingTargetId": 28147}, {"articleLinkId": 2680815, "linkingTargetId": 19147}, {"articleLinkId": 2680840, "linkingTargetId": 19595}, {"articleLinkId": 2680622, "linkingTargetId": 16191}, {"articleLinkId": 2680660, "linkingTargetId": 16208}, {"articleLinkId": 2680887, "linkingTargetId": 19948}]}</t>
+  </si>
+  <si>
+    <t>2680356;84;1</t>
+  </si>
+  <si>
+    <t>SUBARU</t>
+  </si>
+  <si>
+    <t>2680356;107</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2681075, "linkingTargetId": 30436}, {"articleLinkId": 472806899, "linkingTargetId": 134077}, {"articleLinkId": 2680498, "linkingTargetId": 12273}]}</t>
+  </si>
+  <si>
+    <t>2680356;107;1</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>2680356;138</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 1489200018, "linkingTargetId": 18859}, {"articleLinkId": 1489200019, "linkingTargetId": 55611}]}</t>
+  </si>
+  <si>
+    <t>2680356;138;1</t>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <t>2680356;183</t>
+  </si>
+  <si>
+    <t>{"array": [{"articleLinkId": 2680402, "linkingTargetId": 8982}, {"articleLinkId": 2680596, "linkingTargetId": 16169}, {"articleLinkId": 2680899, "linkingTargetId": 20623}, {"articleLinkId": 2680875, "linkingTargetId": 19804}]}</t>
+  </si>
+  <si>
+    <t>2680356;183;1</t>
   </si>
 </sst>
 </file>
@@ -96,7 +213,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +224,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -574,148 +698,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,15 +1194,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,19 +1227,22 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2680287</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1129,19 +1256,22 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2680287</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1150,36 +1280,303 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>936763199</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>2680312</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2680312</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>866</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2680350</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>2680356</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2680356</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>2680356</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2680356</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>2680356</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>2680356</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>2680356</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>183</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
